--- a/main/standalone app/persistence/data/defaultLaserJobsFile.xlsx
+++ b/main/standalone app/persistence/data/defaultLaserJobsFile.xlsx
@@ -357,7 +357,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -457,13 +457,11 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>2020-01-14</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>Vector</t>
@@ -506,6 +504,3144 @@
         <v>0</v>
       </c>
       <c r="P2" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M31" t="b">
+        <v>0</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M33" t="b">
+        <v>0</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M34" t="b">
+        <v>0</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M35" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M36" t="b">
+        <v>0</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M38" t="b">
+        <v>0</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M39" t="b">
+        <v>0</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M40" t="b">
+        <v>0</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M41" t="b">
+        <v>0</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M42" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M43" t="b">
+        <v>0</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M44" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M45" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M46" t="b">
+        <v>0</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M47" t="b">
+        <v>0</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M48" t="b">
+        <v>0</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M49" t="b">
+        <v>0</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M50" t="b">
+        <v>0</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M51" t="b">
+        <v>0</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M52" t="b">
+        <v>0</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M53" t="b">
+        <v>0</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M54" t="b">
+        <v>0</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M55" t="b">
+        <v>0</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M56" t="b">
+        <v>0</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M57" t="b">
+        <v>0</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Enter here useful comments for the future</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Vector</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>900</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>5000</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Optimize</t>
+        </is>
+      </c>
+      <c r="M58" t="b">
+        <v>0</v>
+      </c>
+      <c r="P58" t="inlineStr">
         <is>
           <t>Enter here useful comments for the future</t>
         </is>
